--- a/data_cleaned.xlsx
+++ b/data_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\Portfolio\PoC dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31381948-3104-4D88-B2C8-70CA1CB9A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C430CC04-01CC-4FF6-A114-869A18DFE75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="388" yWindow="1365" windowWidth="23654" windowHeight="11069" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="61">
   <si>
     <t>Class</t>
   </si>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="P195" sqref="P195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -8894,46 +8894,46 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B190" t="s">
         <v>59</v>
       </c>
       <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+      <c r="G190">
+        <v>4</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190">
         <v>6</v>
       </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190">
-        <v>5</v>
-      </c>
-      <c r="F190">
-        <v>5</v>
-      </c>
-      <c r="G190">
-        <v>5</v>
-      </c>
-      <c r="H190">
-        <v>5</v>
-      </c>
-      <c r="I190">
-        <v>5</v>
-      </c>
-      <c r="J190">
-        <v>5</v>
-      </c>
       <c r="K190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N190">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -8944,40 +8944,40 @@
         <v>59</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J191">
         <v>5</v>
       </c>
       <c r="K191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N191">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -8988,84 +8988,84 @@
         <v>59</v>
       </c>
       <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
+      </c>
+      <c r="G192">
+        <v>4</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+      <c r="J192">
+        <v>5</v>
+      </c>
+      <c r="K192">
+        <v>4</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+      <c r="N192">
         <v>8</v>
-      </c>
-      <c r="D192" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192">
-        <v>5</v>
-      </c>
-      <c r="F192">
-        <v>5</v>
-      </c>
-      <c r="G192">
-        <v>5</v>
-      </c>
-      <c r="H192">
-        <v>3</v>
-      </c>
-      <c r="I192">
-        <v>4</v>
-      </c>
-      <c r="J192">
-        <v>5</v>
-      </c>
-      <c r="K192">
-        <v>4</v>
-      </c>
-      <c r="L192">
-        <v>4</v>
-      </c>
-      <c r="M192">
-        <v>5</v>
-      </c>
-      <c r="N192">
-        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B193" t="s">
         <v>59</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F193">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N193">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -9076,40 +9076,40 @@
         <v>59</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
       </c>
       <c r="E194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>4</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N194">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -9120,84 +9120,84 @@
         <v>59</v>
       </c>
       <c r="C195">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195">
+        <v>4</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195">
+        <v>4</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
         <v>8</v>
-      </c>
-      <c r="D195" t="s">
-        <v>15</v>
-      </c>
-      <c r="E195">
-        <v>5</v>
-      </c>
-      <c r="F195">
-        <v>5</v>
-      </c>
-      <c r="G195">
-        <v>5</v>
-      </c>
-      <c r="H195">
-        <v>5</v>
-      </c>
-      <c r="I195">
-        <v>5</v>
-      </c>
-      <c r="J195">
-        <v>5</v>
-      </c>
-      <c r="K195">
-        <v>3</v>
-      </c>
-      <c r="L195">
-        <v>4</v>
-      </c>
-      <c r="M195">
-        <v>5</v>
-      </c>
-      <c r="N195">
-        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B196" t="s">
         <v>59</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J196">
         <v>5</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N196">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -9208,25 +9208,25 @@
         <v>59</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>5</v>
@@ -9235,92 +9235,92 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B198" t="s">
         <v>59</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E198">
         <v>2</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N198">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
         <v>59</v>
       </c>
       <c r="C199">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
       </c>
       <c r="E199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J199">
         <v>4</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L199">
         <v>3</v>
@@ -9329,18 +9329,18 @@
         <v>4</v>
       </c>
       <c r="N199">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B200" t="s">
         <v>59</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
@@ -9349,31 +9349,31 @@
         <v>4</v>
       </c>
       <c r="F200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G200">
         <v>4</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I200">
         <v>4</v>
       </c>
       <c r="J200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K200">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N200">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -9384,25 +9384,25 @@
         <v>59</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F201">
         <v>5</v>
       </c>
       <c r="G201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H201">
         <v>5</v>
       </c>
       <c r="I201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J201">
         <v>5</v>
@@ -9422,46 +9422,46 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B202" t="s">
         <v>59</v>
       </c>
       <c r="C202">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F202">
         <v>5</v>
       </c>
       <c r="G202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J202">
         <v>5</v>
       </c>
       <c r="K202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N202">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -9472,40 +9472,40 @@
         <v>59</v>
       </c>
       <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
+      <c r="G203">
+        <v>4</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <v>5</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
         <v>7</v>
-      </c>
-      <c r="D203" t="s">
-        <v>15</v>
-      </c>
-      <c r="E203">
-        <v>4</v>
-      </c>
-      <c r="F203">
-        <v>5</v>
-      </c>
-      <c r="G203">
-        <v>4</v>
-      </c>
-      <c r="H203">
-        <v>2</v>
-      </c>
-      <c r="I203">
-        <v>4</v>
-      </c>
-      <c r="J203">
-        <v>5</v>
-      </c>
-      <c r="K203">
-        <v>4</v>
-      </c>
-      <c r="L203">
-        <v>4</v>
-      </c>
-      <c r="M203">
-        <v>5</v>
-      </c>
-      <c r="N203">
-        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -9528,28 +9528,28 @@
         <v>5</v>
       </c>
       <c r="G204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J204">
         <v>5</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N204">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -9560,45 +9560,45 @@
         <v>59</v>
       </c>
       <c r="C205">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N205">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B206" t="s">
         <v>59</v>
@@ -9607,81 +9607,81 @@
         <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G206">
         <v>4</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K206">
         <v>3</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B207" t="s">
         <v>59</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
       </c>
       <c r="E207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F207">
         <v>5</v>
       </c>
       <c r="G207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H207">
         <v>5</v>
       </c>
       <c r="I207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J207">
         <v>5</v>
       </c>
       <c r="K207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M207">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N207">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -9692,84 +9692,84 @@
         <v>59</v>
       </c>
       <c r="C208">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J208">
         <v>5</v>
       </c>
       <c r="K208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N208">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B209" t="s">
         <v>59</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J209">
         <v>5</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N209">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -9780,10 +9780,10 @@
         <v>59</v>
       </c>
       <c r="C210">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E210">
         <v>5</v>
@@ -9824,40 +9824,40 @@
         <v>59</v>
       </c>
       <c r="C211">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G211">
         <v>5</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J211">
         <v>5</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M211">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -9868,19 +9868,19 @@
         <v>59</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
         <v>16</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>4</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -9889,19 +9889,19 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K212">
         <v>2</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
@@ -9915,37 +9915,37 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H213">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J213">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M213">
         <v>3</v>
       </c>
       <c r="N213">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
@@ -9956,25 +9956,25 @@
         <v>59</v>
       </c>
       <c r="C214">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F214">
         <v>5</v>
       </c>
       <c r="G214">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J214">
         <v>5</v>
@@ -9983,13 +9983,13 @@
         <v>4</v>
       </c>
       <c r="L214">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -10000,22 +10000,22 @@
         <v>59</v>
       </c>
       <c r="C215">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I215">
         <v>4</v>
@@ -10024,60 +10024,60 @@
         <v>5</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N215">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B216" t="s">
         <v>59</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
         <v>18</v>
       </c>
       <c r="E216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I216">
         <v>4</v>
       </c>
       <c r="J216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N216">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -10088,7 +10088,7 @@
         <v>59</v>
       </c>
       <c r="C217">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
         <v>18</v>
@@ -10106,66 +10106,66 @@
         <v>5</v>
       </c>
       <c r="I217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M217">
         <v>5</v>
       </c>
       <c r="N217">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B218" t="s">
         <v>59</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
@@ -10176,40 +10176,40 @@
         <v>59</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
       <c r="G219">
+        <v>2</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
         <v>1</v>
       </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-      <c r="I219">
-        <v>1</v>
-      </c>
-      <c r="J219">
-        <v>3</v>
-      </c>
       <c r="K219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N219">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
@@ -10223,22 +10223,22 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220">
         <v>3</v>
@@ -10247,10 +10247,10 @@
         <v>3</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N220">
         <v>4</v>
@@ -10264,84 +10264,84 @@
         <v>59</v>
       </c>
       <c r="C221">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B222" t="s">
         <v>59</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E222">
         <v>4</v>
       </c>
       <c r="F222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G222">
         <v>5</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I222">
         <v>4</v>
       </c>
       <c r="J222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K222">
         <v>4</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N222">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
@@ -10352,28 +10352,28 @@
         <v>59</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E223">
         <v>4</v>
       </c>
       <c r="F223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K223">
         <v>4</v>
@@ -10385,12 +10385,12 @@
         <v>5</v>
       </c>
       <c r="N223">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B224" t="s">
         <v>59</v>
@@ -10402,16 +10402,16 @@
         <v>20</v>
       </c>
       <c r="E224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>3</v>
@@ -10420,16 +10420,16 @@
         <v>4</v>
       </c>
       <c r="K224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
@@ -10440,84 +10440,84 @@
         <v>59</v>
       </c>
       <c r="C225">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K225">
         <v>3</v>
       </c>
       <c r="L225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B226" t="s">
         <v>59</v>
       </c>
       <c r="C226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K226">
         <v>3</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M226">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N226">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -10531,42 +10531,42 @@
         <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K227">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M227">
         <v>5</v>
       </c>
       <c r="N227">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B228" t="s">
         <v>59</v>
@@ -10575,7 +10575,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -10587,7 +10587,7 @@
         <v>5</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I228">
         <v>5</v>
@@ -10596,10 +10596,10 @@
         <v>5</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M228">
         <v>5</v>
@@ -10610,139 +10610,139 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B229" t="s">
         <v>59</v>
       </c>
       <c r="C229">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M229">
         <v>5</v>
       </c>
       <c r="N229">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B230" t="s">
         <v>59</v>
       </c>
       <c r="C230">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+      <c r="G230">
+        <v>4</v>
+      </c>
+      <c r="H230">
+        <v>4</v>
+      </c>
+      <c r="I230">
+        <v>4</v>
+      </c>
+      <c r="J230">
+        <v>4</v>
+      </c>
+      <c r="K230">
+        <v>4</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>5</v>
+      </c>
+      <c r="N230">
         <v>9</v>
-      </c>
-      <c r="D230" t="s">
-        <v>15</v>
-      </c>
-      <c r="E230">
-        <v>4</v>
-      </c>
-      <c r="F230">
-        <v>4</v>
-      </c>
-      <c r="G230">
-        <v>3</v>
-      </c>
-      <c r="H230">
-        <v>3</v>
-      </c>
-      <c r="I230">
-        <v>4</v>
-      </c>
-      <c r="J230">
-        <v>5</v>
-      </c>
-      <c r="K230">
-        <v>3</v>
-      </c>
-      <c r="L230">
-        <v>2</v>
-      </c>
-      <c r="M230">
-        <v>5</v>
-      </c>
-      <c r="N230">
-        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
         <v>59</v>
       </c>
       <c r="C231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F231">
         <v>4</v>
       </c>
       <c r="G231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J231">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K231">
         <v>3</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N231">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B232" t="s">
         <v>59</v>
@@ -10754,7 +10754,7 @@
         <v>20</v>
       </c>
       <c r="E232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F232">
         <v>4</v>
@@ -10763,13 +10763,13 @@
         <v>4</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J232">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K232">
         <v>3</v>
@@ -10778,36 +10778,36 @@
         <v>4</v>
       </c>
       <c r="M232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N232">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B233" t="s">
         <v>59</v>
       </c>
       <c r="C233">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D233" t="s">
         <v>20</v>
       </c>
       <c r="E233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I233">
         <v>5</v>
@@ -10819,39 +10819,39 @@
         <v>3</v>
       </c>
       <c r="L233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M233">
         <v>5</v>
       </c>
       <c r="N233">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B234" t="s">
         <v>59</v>
       </c>
       <c r="C234">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E234">
         <v>5</v>
       </c>
       <c r="F234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G234">
         <v>5</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I234">
         <v>5</v>
@@ -10860,42 +10860,42 @@
         <v>5</v>
       </c>
       <c r="K234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N234">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B235" t="s">
         <v>59</v>
       </c>
       <c r="C235">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E235">
         <v>5</v>
       </c>
       <c r="F235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G235">
         <v>5</v>
       </c>
       <c r="H235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I235">
         <v>5</v>
@@ -10910,124 +10910,124 @@
         <v>4</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N235">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B236" t="s">
         <v>59</v>
       </c>
       <c r="C236">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L236">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B237" t="s">
         <v>59</v>
       </c>
       <c r="C237">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B238" t="s">
         <v>59</v>
       </c>
       <c r="C238">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D238" t="s">
         <v>18</v>
       </c>
       <c r="E238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>4</v>
@@ -11036,21 +11036,21 @@
         <v>5</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N238">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B239" t="s">
         <v>59</v>
@@ -11059,13 +11059,13 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E239">
         <v>4</v>
       </c>
       <c r="F239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G239">
         <v>5</v>
@@ -11074,39 +11074,39 @@
         <v>3</v>
       </c>
       <c r="I239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K239">
         <v>3</v>
       </c>
       <c r="L239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B240" t="s">
         <v>59</v>
       </c>
       <c r="C240">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F240">
         <v>4</v>
@@ -11121,33 +11121,33 @@
         <v>3</v>
       </c>
       <c r="J240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B241" t="s">
         <v>59</v>
       </c>
       <c r="C241">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -11156,25 +11156,25 @@
         <v>4</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I241">
         <v>3</v>
       </c>
       <c r="J241">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N241">
         <v>1</v>
@@ -11188,7 +11188,7 @@
         <v>59</v>
       </c>
       <c r="C242">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D242" t="s">
         <v>20</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B243" t="s">
         <v>59</v>
@@ -11235,51 +11235,51 @@
         <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E243">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G243">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J243">
         <v>5</v>
       </c>
       <c r="K243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N243">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B244" t="s">
         <v>59</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E244">
         <v>5</v>
@@ -11306,7 +11306,7 @@
         <v>5</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N244">
         <v>10</v>
@@ -11320,7 +11320,7 @@
         <v>59</v>
       </c>
       <c r="C245">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D245" t="s">
         <v>20</v>
@@ -11358,43 +11358,43 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B246" t="s">
         <v>59</v>
       </c>
       <c r="C246">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D246" t="s">
         <v>20</v>
       </c>
       <c r="E246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J246">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N246">
         <v>10</v>
@@ -11402,90 +11402,90 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B247" t="s">
         <v>59</v>
       </c>
       <c r="C247">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B248" t="s">
         <v>59</v>
       </c>
       <c r="C248">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G248">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N248">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -11496,7 +11496,7 @@
         <v>59</v>
       </c>
       <c r="C249">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D249" t="s">
         <v>15</v>
@@ -11540,10 +11540,10 @@
         <v>59</v>
       </c>
       <c r="C250">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E250">
         <v>5</v>
@@ -11552,7 +11552,7 @@
         <v>5</v>
       </c>
       <c r="G250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H250">
         <v>5</v>
@@ -11573,7 +11573,7 @@
         <v>5</v>
       </c>
       <c r="N250">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -11584,7 +11584,7 @@
         <v>59</v>
       </c>
       <c r="C251">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
@@ -11622,16 +11622,16 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B252" t="s">
         <v>59</v>
       </c>
       <c r="C252">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D252" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E252">
         <v>5</v>
@@ -11640,7 +11640,7 @@
         <v>5</v>
       </c>
       <c r="G252">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H252">
         <v>5</v>
@@ -11661,21 +11661,21 @@
         <v>5</v>
       </c>
       <c r="N252">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B253" t="s">
         <v>59</v>
       </c>
       <c r="C253">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -11696,7 +11696,7 @@
         <v>5</v>
       </c>
       <c r="K253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L253">
         <v>5</v>
@@ -11710,13 +11710,13 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254" t="s">
         <v>59</v>
       </c>
       <c r="C254">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
@@ -11731,7 +11731,7 @@
         <v>5</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I254">
         <v>5</v>
@@ -11740,7 +11740,7 @@
         <v>5</v>
       </c>
       <c r="K254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L254">
         <v>5</v>
@@ -11754,28 +11754,28 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B255" t="s">
         <v>59</v>
       </c>
       <c r="C255">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H255">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I255">
         <v>5</v>
@@ -11784,13 +11784,13 @@
         <v>5</v>
       </c>
       <c r="K255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L255">
         <v>5</v>
       </c>
       <c r="M255">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N255">
         <v>10</v>
@@ -11798,25 +11798,25 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B256" t="s">
         <v>59</v>
       </c>
       <c r="C256">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E256">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F256">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G256">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H256">
         <v>5</v>
@@ -11834,7 +11834,7 @@
         <v>5</v>
       </c>
       <c r="M256">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N256">
         <v>10</v>
@@ -11842,7 +11842,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B257" t="s">
         <v>59</v>
@@ -11854,34 +11854,34 @@
         <v>16</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J257">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N257">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
@@ -11892,169 +11892,169 @@
         <v>59</v>
       </c>
       <c r="C258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J258">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N258">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B259" t="s">
         <v>59</v>
       </c>
       <c r="C259">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G259">
         <v>5</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K259">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N259">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B260" t="s">
         <v>59</v>
       </c>
       <c r="C260">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
       </c>
       <c r="E260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F260">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G260">
         <v>5</v>
       </c>
       <c r="H260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J260">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K260">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N260">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B261" t="s">
         <v>59</v>
       </c>
       <c r="C261">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E261">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F261">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N261">
         <v>8</v>
@@ -12062,51 +12062,51 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B262" t="s">
         <v>59</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G262">
         <v>4</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B263" t="s">
         <v>59</v>
@@ -12115,10 +12115,10 @@
         <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E263">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F263">
         <v>4</v>
@@ -12127,25 +12127,25 @@
         <v>4</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>5</v>
       </c>
       <c r="K263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M263">
         <v>3</v>
       </c>
       <c r="N263">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -12156,7 +12156,7 @@
         <v>59</v>
       </c>
       <c r="C264">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D264" t="s">
         <v>16</v>
@@ -12189,6 +12189,50 @@
         <v>3</v>
       </c>
       <c r="N264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" t="s">
+        <v>59</v>
+      </c>
+      <c r="C265">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>16</v>
+      </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265">
+        <v>4</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265">
+        <v>5</v>
+      </c>
+      <c r="K265">
+        <v>3</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>3</v>
+      </c>
+      <c r="N265">
         <v>5</v>
       </c>
     </row>
